--- a/Data/EC/NIT-9007714012.xlsx
+++ b/Data/EC/NIT-9007714012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E789B1-ED27-4286-A115-976D30A231BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43A935D-C95C-403F-8FA7-140A826112AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A9A864-F42C-4010-BE9B-4DC99A7CBE4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{823A84A0-4240-49F8-95B8-7A3D24C705E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="134">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,337 +71,340 @@
     <t>FELIX ELIECER MAZA BUELVAS</t>
   </si>
   <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1143397490</t>
+  </si>
+  <si>
+    <t>JOHATHAN TAPIA CALVO</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1143378603</t>
+  </si>
+  <si>
+    <t>OLGA LUCIA GRUESO PERTUZ</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1143397490</t>
-  </si>
-  <si>
-    <t>JOHATHAN TAPIA CALVO</t>
-  </si>
-  <si>
-    <t>1143378603</t>
-  </si>
-  <si>
-    <t>OLGA LUCIA GRUESO PERTUZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +503,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +718,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +762,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABC8987-9337-C074-F382-5E8B8B0632D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111AC7EF-408A-C571-E228-F881A6A3EE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24B4801-FCC2-43C1-A3D7-CF9229F6AFE3}">
-  <dimension ref="B2:J142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BD6E3C-7E78-4E80-A719-7878543D25A4}">
+  <dimension ref="B2:J143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1194,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1239,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5292266</v>
+        <v>5332266</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1910,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1939,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1956,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
@@ -2002,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -2031,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -2048,13 +2051,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -2077,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -2094,13 +2097,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -2123,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -2140,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -2169,7 +2172,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2192,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2215,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2238,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2261,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2284,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2307,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2330,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2353,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2376,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2399,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2422,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2445,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2468,7 +2471,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F65" s="18">
         <v>40000</v>
@@ -2491,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2514,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2537,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2560,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2583,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2606,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2629,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2652,7 +2655,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2675,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2698,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2721,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2744,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2767,7 +2770,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2790,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2813,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2836,7 +2839,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2859,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2882,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="18">
         <v>40000</v>
@@ -2905,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="18">
         <v>40000</v>
@@ -2928,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="18">
         <v>40000</v>
@@ -2951,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F86" s="18">
         <v>40000</v>
@@ -2974,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F87" s="18">
         <v>40000</v>
@@ -2997,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F88" s="18">
         <v>40000</v>
@@ -3020,7 +3023,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="18">
         <v>40000</v>
@@ -3043,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="18">
         <v>40000</v>
@@ -3066,7 +3069,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F91" s="18">
         <v>40000</v>
@@ -3089,7 +3092,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F92" s="18">
         <v>40000</v>
@@ -3112,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -3135,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -3152,19 +3155,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3181,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -3198,19 +3201,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G97" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3227,7 +3230,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3244,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3273,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3290,19 +3293,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G101" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3319,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3336,19 +3339,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3365,7 +3368,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F104" s="18">
         <v>40000</v>
@@ -3382,19 +3385,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>112000</v>
       </c>
       <c r="G105" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3411,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3428,19 +3431,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G107" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3457,7 +3460,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F108" s="18">
         <v>40000</v>
@@ -3474,19 +3477,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>36266</v>
       </c>
       <c r="G109" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3503,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3526,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3549,7 +3552,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3572,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3595,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3618,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3641,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3664,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3687,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3710,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3733,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F120" s="18">
         <v>40000</v>
@@ -3756,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3779,7 +3782,7 @@
         <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3796,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F123" s="18">
         <v>40000</v>
@@ -3819,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
@@ -3842,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3865,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3888,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3911,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -3934,19 +3937,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F129" s="18">
-        <v>36266</v>
+        <v>40000</v>
       </c>
       <c r="G129" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3957,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F130" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3980,19 +3983,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F131" s="18">
-        <v>112000</v>
+        <v>40000</v>
       </c>
       <c r="G131" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4003,19 +4006,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="F132" s="18">
-        <v>112000</v>
+        <v>40000</v>
       </c>
       <c r="G132" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4026,19 +4029,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="F133" s="18">
-        <v>112000</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4049,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F134" s="18">
-        <v>112000</v>
+        <v>40000</v>
       </c>
       <c r="G134" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4072,61 +4075,73 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F135" s="18">
-        <v>112000</v>
+        <v>40000</v>
       </c>
       <c r="G135" s="18">
-        <v>2800000</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D136" s="23" t="s">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E136" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F136" s="24">
-        <v>112000</v>
-      </c>
-      <c r="G136" s="24">
-        <v>2800000</v>
-      </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="26"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C141" s="32"/>
-      <c r="H141" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="F136" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G136" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F137" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G137" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="26"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C142" s="32"/>
       <c r="H142" s="1" t="s">
@@ -4135,12 +4150,23 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="32"/>
+      <c r="H143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B143:C143"/>
     <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="H143:J143"/>
     <mergeCell ref="H142:J142"/>
-    <mergeCell ref="H141:J141"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
